--- a/biology/Mycologie/Spilocaea/Spilocaea.xlsx
+++ b/biology/Mycologie/Spilocaea/Spilocaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spilocaea est un genre de champignons ascomycètes de la famille des Venturiaceae.
 Ce genre comprend plusieurs espèces de champignons phytopathogènes, notamment Spilocaea oleaginea, agent de la maladie de l'œil de paon chez l'olivier.
@@ -512,15 +524,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (15 octobre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 octobre 2014) :
 Spilocaea amelanchieris
 Spilocaea crataegi
 Spilocaea oleaginea
 Spilocaea photiniicola
 Spilocaea pyracanthae
-Selon Index Fungorum                                      (15 octobre 2014)[2] :
+Selon Index Fungorum                                      (15 octobre 2014) :
 Spilocaea alba Bonord. 1851
 Spilocaea amelanchieris I.C. Harv. 1982
 Spilocaea concentrica Schwein. 1832
